--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_009.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_009.xlsx
@@ -31,322 +31,328 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295005AA2.06) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Feedwater temperature</t>
-  </si>
-  <si>
-    <t>(295004AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
-  </si>
-  <si>
-    <t>(600000AA1.01) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Respirator air pack</t>
-  </si>
-  <si>
-    <t>(295021AK2.07) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Reactor recirculation</t>
-  </si>
-  <si>
-    <t>(295025EK3.09) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Low-low set initiation</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AA2.03) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Airborne contamination levels</t>
-  </si>
-  <si>
-    <t>(295026EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Heat capacity</t>
-  </si>
-  <si>
-    <t>(295019AA1.01) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Backup air supply</t>
-  </si>
-  <si>
-    <t>(295003AK2.01) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) Station batteries</t>
-  </si>
-  <si>
-    <t>(295038EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Reactor shutdown/SCRAM</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(700000AA2.01) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operating point on the generator capability curve</t>
-  </si>
-  <si>
-    <t>(295016AA2.01) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295001AA1.02) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) RPS</t>
-  </si>
-  <si>
-    <t>(295030EK2.05) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) HPCS</t>
-  </si>
-  <si>
-    <t>(295037EK3.08) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Initiation of ATWS circuitry</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t>(295006AA2.02) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
   </si>
   <si>
-    <t>(295018AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Increasing cooling water flow to heat exchangers</t>
-  </si>
-  <si>
-    <t>(295017AK2.14) Knowledge of the relationship between the (APE 17) ABNORMAL OFFSITE RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) PCIS/NSSSS</t>
-  </si>
-  <si>
-    <t>(295002AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.5 / 45.6) Bypass valve closure</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295020AA2.02) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Drywell/containment temperature</t>
-  </si>
-  <si>
-    <t>(295032EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.8 to 41.10) Radiation releases</t>
-  </si>
-  <si>
-    <t>(295035EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.7 / 45.6) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(215003A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Range</t>
-  </si>
-  <si>
-    <t>(211000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) SLCS pressure/relief valve operation</t>
-  </si>
-  <si>
-    <t>(203000A3.07) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Loop selection</t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(209002K3.05) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power</t>
-  </si>
-  <si>
-    <t>(223002K4.03) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Manual initiation capability</t>
-  </si>
-  <si>
-    <t>(263000A2.02) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of ventilation during charging</t>
-  </si>
-  <si>
-    <t>(217000A4.14) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Resetting isolations</t>
+    <t>(295003AA1.02) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) Emergency generators</t>
+  </si>
+  <si>
+    <t>(295037EK2.05) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) CRD hydraulic system</t>
+  </si>
+  <si>
+    <t>(295030EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Anticipated/emergency depressurization</t>
+  </si>
+  <si>
+    <t>(295025EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Decay heat</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295024EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell temperature</t>
+  </si>
+  <si>
+    <t>(295031EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6)</t>
+  </si>
+  <si>
+    <t>(295018AK2.03) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295026EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) SLCS injection</t>
+  </si>
+  <si>
+    <t>(295038EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Exceeding limits for gaseous/liquid releases</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295001AA2.02) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Neutron monitoring</t>
+  </si>
+  <si>
+    <t>(700000AA1.06) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(295023AK2.07) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
+  </si>
+  <si>
+    <t>(295019AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Standby air compressor operation</t>
+  </si>
+  <si>
+    <t>(295004AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Redundant DC power supplies</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(600000AA2.07) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Whether malfunction(s) are due to common-mode electrical failures</t>
+  </si>
+  <si>
+    <t>(295012AK2.02) Knowledge of the relationship between the (APE 12) HIGH DRYWELL TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Drywell cooling</t>
+  </si>
+  <si>
+    <t>(295022AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.5 / 45.6) Restoring CRDM cooling/drive water flow</t>
+  </si>
+  <si>
+    <t>(295020AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.8 to 41.10) Power/reactivity control</t>
+  </si>
+  <si>
+    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295013AA2.02) Ability to determine and/or interpret the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.10 / 43.5 / 45.13) Localized heating/stratification</t>
+  </si>
+  <si>
+    <t>(500000EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.7 / 45.6) Wetwell sprays</t>
+  </si>
+  <si>
+    <t>(259002K4.02) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Bypassing of the RWMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(262001A4.01) Ability to manually operate and/or monitor the (SF6 AC) AC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Breakers and disconnects </t>
+  </si>
+  <si>
+    <t>(211000A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(218000A2.02) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of coolant accident</t>
+  </si>
+  <si>
+    <t>(209002K3.08) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Condensate storage tank level</t>
+  </si>
+  <si>
+    <t>(300000K2.02) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Emergency air compressor</t>
+  </si>
+  <si>
+    <t>(215005K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) Core flow effects on APRM trip setpoints</t>
+  </si>
+  <si>
+    <t>(209001A3.02) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump start</t>
+  </si>
+  <si>
+    <t>(215004K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) Detector drive motor</t>
+  </si>
+  <si>
+    <t>(223002K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Containment ventilation</t>
+  </si>
+  <si>
+    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(262002K4.01) Knowledge of (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) design features and/or interlocks that provide for the following: (CFR: 41.7) Transfer of power supplies</t>
+  </si>
+  <si>
+    <t>(239002A4.04) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(205000A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) Reactor water level</t>
+  </si>
+  <si>
+    <t>(263000A2.04) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
+  </si>
+  <si>
+    <t>(217000K3.07) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Secondary containment parameters</t>
   </si>
   <si>
     <t>(212000K2.02) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS logic</t>
   </si>
   <si>
-    <t>(239002K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
-  </si>
-  <si>
-    <t>(264000K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.7 / 45.7) Cooling water system</t>
-  </si>
-  <si>
-    <t>(259002A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Main steam flow</t>
-  </si>
-  <si>
-    <t>(218000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(300000A3.03) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Compressor automatic starts/trips</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (291003K1.05) CONTROLLERS AND POSITIONERS (CFR: 41.7) Function and characteristics of valve positioners</t>
-  </si>
-  <si>
-    <t>(510000K3.09) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fire protection system</t>
-  </si>
-  <si>
-    <t>(262002K4.01) Knowledge of (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) design features and/or interlocks that provide for the following: (CFR: 41.7) Transfer of power supplies</t>
-  </si>
-  <si>
-    <t>(400000A2.15) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of cooling to turbine lube oil system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(215005A4.01) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) IRM/APRM recorder </t>
-  </si>
-  <si>
-    <t>(205000K2.02) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
-  </si>
-  <si>
-    <t>(215004K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
-  </si>
-  <si>
-    <t>(262001K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Offsite power</t>
-  </si>
-  <si>
-    <t>(215003A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Detector position</t>
-  </si>
-  <si>
-    <t>(211000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) Effects of the moderator temperature coefficient of reactivity on boron</t>
-  </si>
-  <si>
-    <t>(203000A3.01) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(202001K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF1, SF4 RS) RECIRCULATION SYSTEM and the following systems: (CFR: 41.2 to 41.8 / 45.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(239003K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) : (CFR: 41.7 / 45.7) Inboard system logic failure</t>
-  </si>
-  <si>
-    <t>(272000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM including: (CFR: 41.5 / 45.5) Sample flows</t>
-  </si>
-  <si>
-    <t>(201005K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6): (CFR: 41.5 to 41.7 / 45.3 / 45.5) Rod sequences</t>
-  </si>
-  <si>
-    <t>(271000A3.08) Ability to monitor automatic operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.7 / 45.7) Fire suppression</t>
-  </si>
-  <si>
-    <t>(256000) (SF2 CDS) CONDENSATE SYSTEM (291006K1.15) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Effects of heat exchanger tube fouling</t>
-  </si>
-  <si>
-    <t>(226001K3.01) Knowledge of the effect that a loss or malfunction of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Containment/drywell/suppression chamber pressure</t>
-  </si>
-  <si>
-    <t>(233000K4.05) Knowledge of (SF9 FPCCU) FUEL POOL COOLING/CLEANUP design features and/or interlocks that provide for the following: (CFR: 41.7) Maintaining fuel pool cooling pump NPSH</t>
-  </si>
-  <si>
-    <t>(216000A2.09) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Jet pump malfunction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(202002A4.02) Ability to manually operate and/or monitor the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Hydraulic power unit (BWR 5, 6) </t>
-  </si>
-  <si>
-    <t>(215001K2.02) (SF7 TIP) TRAVERSING IN CORE PROBE Knowledge of electrical power supplies to the following: (CFR: 41.7) Ball valves (BWR 2, 3, 4, 5)</t>
+    <t>(261000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Secondary containment pressure changes</t>
+  </si>
+  <si>
+    <t>(400000A3.02) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) Containment isolation</t>
+  </si>
+  <si>
+    <t>(264000K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.7 / 45.7) Turbo/super charger</t>
+  </si>
+  <si>
+    <t>(203000K1.16) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 43.5 / 45.7 / 45.8) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (291004K1.05) PUMPS (CFR: 41.3) (CENTRIFUGAL) Discuss relationships among head, flow, and power, as related to pump speed</t>
+  </si>
+  <si>
+    <t>(259002K4.16) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Dedication of feedwater string(s) to ECCS: FWCI</t>
+  </si>
+  <si>
+    <t>(262001A4.03) Ability to manually operate and/or monitor the (SF6 AC) AC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Local operation of breakers</t>
+  </si>
+  <si>
+    <t>(211000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Explosive squib valves status</t>
+  </si>
+  <si>
+    <t>(218000A2.06) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS initiation signals present</t>
+  </si>
+  <si>
+    <t>(234000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 FH) FUEL HANDLING and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(239003K4.07) Knowledge of (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Reduction of MSIV leakage temperature</t>
+  </si>
+  <si>
+    <t>(233000A4.02) Ability to manually operate and/or monitor the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP in the control room: (CFR: 41.7 / 45.5 to 45.8) Fuel pool cooling system valves</t>
+  </si>
+  <si>
+    <t>(201005A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(241000A2.05) Ability to (a) predict the impacts of the following on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal main stop valve position</t>
+  </si>
+  <si>
+    <t>(271000K3.03) Knowledge of the effect that a loss or malfunction of the (SF9 OG) OFFGAS SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Condenser air removal</t>
+  </si>
+  <si>
+    <t>(259001K2.03) (SF2 FWS) FEEDWATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RFP auxiliary oil pumps</t>
+  </si>
+  <si>
+    <t>(239001K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM: (CFR: 41.5 / 45.3) Inadvertent MSIV operation</t>
+  </si>
+  <si>
+    <t>(510001A3.02) Ability to monitor automatic operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.7 / 45.5) Valve alignment</t>
+  </si>
+  <si>
+    <t>(202002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM: (CFR: 41.7 / 45.7) Feedwater flow inputs (BWR 3, 4, 5, 6)</t>
+  </si>
+  <si>
+    <t>(G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
   </si>
   <si>
     <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
+  </si>
+  <si>
+    <t>(292008K1.16) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (HEATUP OPERATION) Explain procedures for establishing and controlling heatup rate</t>
+  </si>
+  <si>
+    <t>(292002K1.09) NEUTRON LIFE CYCLE (CFR: 41.1) Define K-excess (excess reactivity)</t>
+  </si>
+  <si>
+    <t>(293004K1.17) THERMODYNAMIC PROCESS (CFR: 41.14) (THROTTLING AND THE THROTTLING PROCESS) Determine the exit conditions for a throttling process based on the use of steam or water</t>
+  </si>
+  <si>
+    <t>(293006K1.07) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) State the purpose of a pump</t>
+  </si>
+  <si>
+    <t>(293010K1.03) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) Define reference temperature</t>
+  </si>
+  <si>
+    <t>(295021AA2.03) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295030EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295016AA2.04) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295034EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Ventilation radiation levels</t>
+  </si>
+  <si>
+    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295033EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan</t>
+  </si>
+  <si>
+    <t>(209002A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool level</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215005A2.07) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation flow channels flow mismatch</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215004A2.05) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty or erratic operation of detectors/system </t>
+  </si>
+  <si>
+    <t>(290003) (SF9 CRV) CONTROL ROOM VENTILATION (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(215001A2.06) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Abnormal valve position (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(223001) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
   </si>
   <si>
     <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
   </si>
   <si>
-    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
-  </si>
-  <si>
-    <t>(292006K1.06) FISSION PRODUCT POISONS (CFR: 41.1) Describe the following processes and state their effect on reactor operations: --Transient xenon</t>
-  </si>
-  <si>
-    <t>(292004K1.01) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the moderator temperature coefficient of reactivity</t>
-  </si>
-  <si>
-    <t>(293003K1.23) STEAM (CFR: 41.14) Use saturated and superheated steam tables</t>
-  </si>
-  <si>
-    <t>(293004K1.17) THERMODYNAMIC PROCESS (CFR: 41.14) (THROTTLING AND THE THROTTLING PROCESS) Determine the exit conditions for a throttling process based on the use of steam or water</t>
-  </si>
-  <si>
-    <t>(293009K1.01) CORE THERMAL LIMITS (CFR: 41.14) Explain radial peaking factor</t>
-  </si>
-  <si>
-    <t>(295005AA2.07) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(600000AA2.18) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Assessment of control room habitability (SRO Only)</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
-  </si>
-  <si>
-    <t>(295023AA2.01) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(295010AA2.02) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295029EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(209002A2.09) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of plant ventilation (HPCS room cooler) </t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(263000A2.01) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Grounds/faults</t>
-  </si>
-  <si>
-    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(212000A2.09) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High containment/drywell pressure</t>
-  </si>
-  <si>
-    <t>(241000) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM (G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(219000A2.02) Ability to (a) predict the impacts of the following on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trips</t>
-  </si>
-  <si>
-    <t>(268000) (SF9 RW) RADWASTE SYSTEM (G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, “Changes, Tests and Experiments,” screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
     <t>K1</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>G</t>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
   <si>
     <t>K5</t>
@@ -355,12 +361,6 @@
     <t>A3</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>K6</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
     <t>295005</t>
   </si>
   <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
     <t>295004</t>
   </si>
   <si>
+    <t>295027</t>
+  </si>
+  <si>
     <t>600000</t>
   </si>
   <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295017</t>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>295034</t>
   </si>
   <si>
     <t>295002</t>
   </si>
   <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>202002</t>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>290003</t>
   </si>
   <si>
     <t>215001</t>
   </si>
   <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>268000</t>
+    <t>223001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,7 +1494,7 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D32" t="s">
         <v>109</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,7 +1545,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D35" t="s">
         <v>114</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,7 +1681,7 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D43" t="s">
         <v>109</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1718,7 +1718,7 @@
         <v>3.4</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,7 +1732,7 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D46" t="s">
         <v>114</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1820,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1837,7 +1837,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1871,7 +1871,7 @@
         <v>3.4</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,7 +1970,7 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D60" t="s">
         <v>109</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,7 +2021,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="D63" t="s">
         <v>114</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2296,7 +2296,7 @@
         <v>3.6</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2313,7 +2313,7 @@
         <v>3.8</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2517,7 +2517,7 @@
         <v>4.2</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
